--- a/Haring/dok/Adresy IP.xlsx
+++ b/Haring/dok/Adresy IP.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,6 +236,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -284,7 +287,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -319,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,21 +533,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="35.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,12 +561,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G2" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>51</v>
       </c>
@@ -577,12 +580,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -596,7 +599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -610,7 +613,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -624,7 +627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,7 +641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -652,7 +655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -666,7 +669,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -680,7 +683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -694,7 +697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -708,7 +711,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -722,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -736,7 +739,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -750,7 +753,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -764,7 +767,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -778,7 +781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -792,7 +795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -806,7 +809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -820,7 +823,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
@@ -834,7 +837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -848,10 +851,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
@@ -865,7 +868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -879,7 +882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -904,7 +907,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -916,7 +919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
